--- a/cfg/pubfinder_list_NLA.xlsx
+++ b/cfg/pubfinder_list_NLA.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_dev\cfg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_dev\pubfinder\cfg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE548D7-3162-4B3E-9353-3BACAE032C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70BF241-06E4-404B-9128-D58BF4101985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{75E81789-C525-4005-96BA-B080353C5F6C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{75E81789-C525-4005-96BA-B080353C5F6C}"/>
   </bookViews>
   <sheets>
     <sheet name="pubfinder_list_NLA_ok" sheetId="2" r:id="rId1"/>
     <sheet name="Tabelle1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExterneDaten_1" localSheetId="0" hidden="1">pubfinder_list_NLA_ok!$A$1:$X$103</definedName>
+    <definedName name="ExterneDaten_1" localSheetId="0" hidden="1">pubfinder_list_NLA_ok!$A$1:$X$104</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2368" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2390" uniqueCount="647">
   <si>
     <t>Name</t>
   </si>
@@ -1475,9 +1475,6 @@
     <t>Hersbrucker Str. 1</t>
   </si>
   <si>
-    <t>https://www.instagram.com/suedtiroler.stuben.lauf/?hl=de</t>
-  </si>
-  <si>
     <t>Cafe Restaurant Südlich</t>
   </si>
   <si>
@@ -1974,6 +1971,24 @@
   </si>
   <si>
     <t>11:00 - 14:30 &amp; 16:30 - 22:00</t>
+  </si>
+  <si>
+    <t>Afroditi</t>
+  </si>
+  <si>
+    <t>Samstagstraße 18</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/people/Afroditi-by-Apostoli/100090600108962/</t>
+  </si>
+  <si>
+    <t>+4991239892860</t>
+  </si>
+  <si>
+    <t>11:00 -14:00 &amp; 17:00 - 21:00</t>
+  </si>
+  <si>
+    <t>https://suedtiroler-stuben-lauf.de/</t>
   </si>
 </sst>
 </file>
@@ -2025,10 +2040,10 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -2151,8 +2166,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1C4BF8B3-CB62-48F7-AAC2-6E12CB367C86}" name="pubfinder_list_NLA_ok" displayName="pubfinder_list_NLA_ok" ref="A1:X103" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:X103" xr:uid="{1C4BF8B3-CB62-48F7-AAC2-6E12CB367C86}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1C4BF8B3-CB62-48F7-AAC2-6E12CB367C86}" name="pubfinder_list_NLA_ok" displayName="pubfinder_list_NLA_ok" ref="A1:X104" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:X104" xr:uid="{1C4BF8B3-CB62-48F7-AAC2-6E12CB367C86}"/>
   <tableColumns count="24">
     <tableColumn id="1" xr3:uid="{92103B2C-FCC3-42D2-95DB-A3F77D77EC29}" uniqueName="1" name="Name" queryTableFieldId="1" dataDxfId="22"/>
     <tableColumn id="2" xr3:uid="{86208C35-2046-4F53-B583-F5FD55ED84C8}" uniqueName="2" name="Typ" queryTableFieldId="2" dataDxfId="21"/>
@@ -2500,36 +2515,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F2D7F2-8E23-4C59-B8E8-2949683E6C83}">
-  <dimension ref="A1:X103"/>
+  <dimension ref="A1:X104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView tabSelected="1" topLeftCell="C44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H77" sqref="H77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.90625" customWidth="1"/>
+    <col min="5" max="5" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="39" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="81.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="81.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2603,7 +2618,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -2677,7 +2692,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -2751,7 +2766,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -2825,7 +2840,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -2899,7 +2914,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>60</v>
       </c>
@@ -2973,7 +2988,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -3047,7 +3062,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>75</v>
       </c>
@@ -3121,7 +3136,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -3195,7 +3210,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>85</v>
       </c>
@@ -3269,7 +3284,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>94</v>
       </c>
@@ -3343,7 +3358,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>102</v>
       </c>
@@ -3417,7 +3432,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>109</v>
       </c>
@@ -3491,7 +3506,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>115</v>
       </c>
@@ -3565,7 +3580,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>122</v>
       </c>
@@ -3639,7 +3654,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>129</v>
       </c>
@@ -3713,7 +3728,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>132</v>
       </c>
@@ -3787,7 +3802,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>138</v>
       </c>
@@ -3861,7 +3876,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>146</v>
       </c>
@@ -3935,7 +3950,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>152</v>
       </c>
@@ -4009,7 +4024,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>159</v>
       </c>
@@ -4083,7 +4098,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>166</v>
       </c>
@@ -4157,7 +4172,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>173</v>
       </c>
@@ -4231,7 +4246,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>179</v>
       </c>
@@ -4305,7 +4320,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>184</v>
       </c>
@@ -4379,7 +4394,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>191</v>
       </c>
@@ -4453,7 +4468,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>196</v>
       </c>
@@ -4527,7 +4542,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>202</v>
       </c>
@@ -4601,7 +4616,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>208</v>
       </c>
@@ -4675,7 +4690,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>216</v>
       </c>
@@ -4749,7 +4764,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>223</v>
       </c>
@@ -4823,7 +4838,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>230</v>
       </c>
@@ -4897,7 +4912,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>238</v>
       </c>
@@ -4971,7 +4986,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>244</v>
       </c>
@@ -5045,7 +5060,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>251</v>
       </c>
@@ -5119,7 +5134,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>257</v>
       </c>
@@ -5193,7 +5208,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>264</v>
       </c>
@@ -5267,7 +5282,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>271</v>
       </c>
@@ -5341,7 +5356,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>278</v>
       </c>
@@ -5415,7 +5430,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>284</v>
       </c>
@@ -5489,7 +5504,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>290</v>
       </c>
@@ -5563,7 +5578,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>296</v>
       </c>
@@ -5637,7 +5652,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>302</v>
       </c>
@@ -5711,7 +5726,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>307</v>
       </c>
@@ -5785,7 +5800,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>312</v>
       </c>
@@ -5859,7 +5874,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>319</v>
       </c>
@@ -5933,7 +5948,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>323</v>
       </c>
@@ -6007,7 +6022,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>327</v>
       </c>
@@ -6081,7 +6096,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>333</v>
       </c>
@@ -6155,7 +6170,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>336</v>
       </c>
@@ -6229,7 +6244,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>342</v>
       </c>
@@ -6303,7 +6318,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>346</v>
       </c>
@@ -6377,7 +6392,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>352</v>
       </c>
@@ -6451,7 +6466,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>355</v>
       </c>
@@ -6525,7 +6540,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>359</v>
       </c>
@@ -6599,7 +6614,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>366</v>
       </c>
@@ -6673,7 +6688,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>373</v>
       </c>
@@ -6747,15 +6762,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>634</v>
+      </c>
+      <c r="B58" t="s">
+        <v>637</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>635</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>636</v>
       </c>
       <c r="D58">
         <v>91217</v>
@@ -6763,16 +6778,16 @@
       <c r="E58" t="s">
         <v>368</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>640</v>
-      </c>
-      <c r="H58" s="4" t="s">
+      <c r="F58" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="G58" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="I58" s="1" t="s">
+      <c r="H58" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="I58" t="s">
         <v>31</v>
       </c>
       <c r="J58" t="s">
@@ -6793,31 +6808,29 @@
       <c r="O58" t="s">
         <v>33</v>
       </c>
-      <c r="P58" s="1" t="s">
+      <c r="P58" t="s">
         <v>31</v>
       </c>
       <c r="Q58" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="R58" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="S58" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="T58" t="s">
-        <v>641</v>
-      </c>
-      <c r="U58" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="U58" t="s">
         <v>44</v>
       </c>
-      <c r="V58" s="1" t="s">
+      <c r="V58" t="s">
         <v>44</v>
       </c>
-      <c r="W58" s="1"/>
-      <c r="X58" s="1"/>
-    </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>379</v>
       </c>
@@ -6891,7 +6904,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>385</v>
       </c>
@@ -6965,7 +6978,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>392</v>
       </c>
@@ -7039,7 +7052,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>398</v>
       </c>
@@ -7113,7 +7126,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>405</v>
       </c>
@@ -7187,7 +7200,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>409</v>
       </c>
@@ -7261,7 +7274,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>413</v>
       </c>
@@ -7335,15 +7348,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>419</v>
+        <v>641</v>
       </c>
       <c r="B66" t="s">
-        <v>95</v>
+        <v>252</v>
       </c>
       <c r="C66" t="s">
-        <v>420</v>
+        <v>642</v>
       </c>
       <c r="D66">
         <v>91207</v>
@@ -7351,17 +7364,14 @@
       <c r="E66" t="s">
         <v>421</v>
       </c>
-      <c r="F66" t="s">
-        <v>422</v>
-      </c>
-      <c r="G66" t="s">
-        <v>29</v>
-      </c>
-      <c r="H66" t="s">
-        <v>423</v>
+      <c r="F66" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>643</v>
       </c>
       <c r="I66" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="J66" t="s">
         <v>41</v>
@@ -7376,31 +7386,31 @@
         <v>43</v>
       </c>
       <c r="N66" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O66" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P66" t="s">
-        <v>424</v>
+        <v>31</v>
       </c>
       <c r="Q66" t="s">
-        <v>424</v>
+        <v>58</v>
       </c>
       <c r="R66" t="s">
-        <v>424</v>
+        <v>58</v>
       </c>
       <c r="S66" t="s">
-        <v>424</v>
+        <v>58</v>
       </c>
       <c r="T66" t="s">
-        <v>424</v>
+        <v>58</v>
       </c>
       <c r="U66" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="V66" t="s">
-        <v>31</v>
+        <v>645</v>
       </c>
       <c r="W66" t="s">
         <v>29</v>
@@ -7409,15 +7419,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B67" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="C67" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="D67">
         <v>91207</v>
@@ -7426,22 +7436,22 @@
         <v>421</v>
       </c>
       <c r="F67" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="G67" t="s">
         <v>29</v>
       </c>
       <c r="H67" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="I67" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="J67" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="K67" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="L67" t="s">
         <v>42</v>
@@ -7450,31 +7460,31 @@
         <v>43</v>
       </c>
       <c r="N67" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O67" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P67" t="s">
-        <v>31</v>
+        <v>424</v>
       </c>
       <c r="Q67" t="s">
-        <v>31</v>
+        <v>424</v>
       </c>
       <c r="R67" t="s">
-        <v>31</v>
+        <v>424</v>
       </c>
       <c r="S67" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="T67" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="U67" t="s">
-        <v>429</v>
+        <v>31</v>
       </c>
       <c r="V67" t="s">
-        <v>429</v>
+        <v>31</v>
       </c>
       <c r="W67" t="s">
         <v>29</v>
@@ -7483,15 +7493,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B68" t="s">
-        <v>252</v>
+        <v>53</v>
       </c>
       <c r="C68" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="D68">
         <v>91207</v>
@@ -7500,13 +7510,13 @@
         <v>421</v>
       </c>
       <c r="F68" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="G68" t="s">
-        <v>433</v>
+        <v>29</v>
       </c>
       <c r="H68" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="I68" t="s">
         <v>31</v>
@@ -7515,7 +7525,7 @@
         <v>31</v>
       </c>
       <c r="K68" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="L68" t="s">
         <v>42</v>
@@ -7536,19 +7546,19 @@
         <v>31</v>
       </c>
       <c r="R68" t="s">
-        <v>435</v>
+        <v>31</v>
       </c>
       <c r="S68" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="T68" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="U68" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="V68" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="W68" t="s">
         <v>29</v>
@@ -7557,15 +7567,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="B69" t="s">
-        <v>25</v>
+        <v>252</v>
       </c>
       <c r="C69" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="D69">
         <v>91207</v>
@@ -7574,13 +7584,13 @@
         <v>421</v>
       </c>
       <c r="F69" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="G69" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="H69" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="I69" t="s">
         <v>31</v>
@@ -7589,10 +7599,10 @@
         <v>31</v>
       </c>
       <c r="K69" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="L69" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="M69" t="s">
         <v>43</v>
@@ -7610,19 +7620,19 @@
         <v>31</v>
       </c>
       <c r="R69" t="s">
-        <v>31</v>
+        <v>435</v>
       </c>
       <c r="S69" t="s">
-        <v>31</v>
+        <v>436</v>
       </c>
       <c r="T69" t="s">
-        <v>73</v>
+        <v>435</v>
       </c>
       <c r="U69" t="s">
-        <v>332</v>
+        <v>435</v>
       </c>
       <c r="V69" t="s">
-        <v>332</v>
+        <v>435</v>
       </c>
       <c r="W69" t="s">
         <v>29</v>
@@ -7631,15 +7641,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="B70" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="C70" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="D70">
         <v>91207</v>
@@ -7648,25 +7658,25 @@
         <v>421</v>
       </c>
       <c r="F70" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="G70" t="s">
-        <v>29</v>
+        <v>440</v>
       </c>
       <c r="H70" t="s">
-        <v>29</v>
+        <v>441</v>
       </c>
       <c r="I70" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="J70" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="K70" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="L70" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="M70" t="s">
         <v>43</v>
@@ -7678,25 +7688,25 @@
         <v>33</v>
       </c>
       <c r="P70" t="s">
-        <v>295</v>
+        <v>31</v>
       </c>
       <c r="Q70" t="s">
-        <v>295</v>
+        <v>31</v>
       </c>
       <c r="R70" t="s">
-        <v>295</v>
+        <v>31</v>
       </c>
       <c r="S70" t="s">
-        <v>295</v>
+        <v>31</v>
       </c>
       <c r="T70" t="s">
-        <v>295</v>
+        <v>73</v>
       </c>
       <c r="U70" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
       <c r="V70" t="s">
-        <v>445</v>
+        <v>332</v>
       </c>
       <c r="W70" t="s">
         <v>29</v>
@@ -7705,15 +7715,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B71" t="s">
         <v>68</v>
       </c>
       <c r="C71" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D71">
         <v>91207</v>
@@ -7722,16 +7732,16 @@
         <v>421</v>
       </c>
       <c r="F71" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G71" t="s">
         <v>29</v>
       </c>
       <c r="H71" t="s">
-        <v>449</v>
+        <v>29</v>
       </c>
       <c r="I71" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="J71" t="s">
         <v>41</v>
@@ -7749,28 +7759,28 @@
         <v>32</v>
       </c>
       <c r="O71" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P71" t="s">
-        <v>31</v>
+        <v>295</v>
       </c>
       <c r="Q71" t="s">
-        <v>235</v>
+        <v>295</v>
       </c>
       <c r="R71" t="s">
-        <v>235</v>
+        <v>295</v>
       </c>
       <c r="S71" t="s">
-        <v>235</v>
+        <v>295</v>
       </c>
       <c r="T71" t="s">
-        <v>235</v>
+        <v>295</v>
       </c>
       <c r="U71" t="s">
-        <v>256</v>
+        <v>295</v>
       </c>
       <c r="V71" t="s">
-        <v>31</v>
+        <v>445</v>
       </c>
       <c r="W71" t="s">
         <v>29</v>
@@ -7779,15 +7789,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B72" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C72" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="D72">
         <v>91207</v>
@@ -7796,19 +7806,19 @@
         <v>421</v>
       </c>
       <c r="F72" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G72" t="s">
-        <v>453</v>
+        <v>29</v>
       </c>
       <c r="H72" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="I72" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="J72" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="K72" t="s">
         <v>49</v>
@@ -7823,28 +7833,28 @@
         <v>32</v>
       </c>
       <c r="O72" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P72" t="s">
-        <v>455</v>
+        <v>31</v>
       </c>
       <c r="Q72" t="s">
-        <v>31</v>
+        <v>235</v>
       </c>
       <c r="R72" t="s">
-        <v>455</v>
+        <v>235</v>
       </c>
       <c r="S72" t="s">
-        <v>455</v>
+        <v>235</v>
       </c>
       <c r="T72" t="s">
-        <v>455</v>
+        <v>235</v>
       </c>
       <c r="U72" t="s">
-        <v>295</v>
+        <v>256</v>
       </c>
       <c r="V72" t="s">
-        <v>295</v>
+        <v>31</v>
       </c>
       <c r="W72" t="s">
         <v>29</v>
@@ -7853,15 +7863,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B73" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="C73" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="D73">
         <v>91207</v>
@@ -7870,16 +7880,16 @@
         <v>421</v>
       </c>
       <c r="F73" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="G73" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="H73" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="I73" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="J73" t="s">
         <v>31</v>
@@ -7900,25 +7910,25 @@
         <v>33</v>
       </c>
       <c r="P73" t="s">
-        <v>31</v>
+        <v>455</v>
       </c>
       <c r="Q73" t="s">
         <v>31</v>
       </c>
       <c r="R73" t="s">
-        <v>108</v>
+        <v>455</v>
       </c>
       <c r="S73" t="s">
-        <v>108</v>
+        <v>455</v>
       </c>
       <c r="T73" t="s">
-        <v>108</v>
+        <v>455</v>
       </c>
       <c r="U73" t="s">
-        <v>108</v>
+        <v>295</v>
       </c>
       <c r="V73" t="s">
-        <v>108</v>
+        <v>295</v>
       </c>
       <c r="W73" t="s">
         <v>29</v>
@@ -7927,15 +7937,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B74" t="s">
         <v>25</v>
       </c>
       <c r="C74" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="D74">
         <v>91207</v>
@@ -7944,13 +7954,13 @@
         <v>421</v>
       </c>
       <c r="F74" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="G74" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="H74" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="I74" t="s">
         <v>31</v>
@@ -7980,19 +7990,19 @@
         <v>31</v>
       </c>
       <c r="R74" t="s">
-        <v>372</v>
+        <v>108</v>
       </c>
       <c r="S74" t="s">
-        <v>372</v>
+        <v>108</v>
       </c>
       <c r="T74" t="s">
-        <v>372</v>
+        <v>108</v>
       </c>
       <c r="U74" t="s">
-        <v>372</v>
+        <v>108</v>
       </c>
       <c r="V74" t="s">
-        <v>372</v>
+        <v>108</v>
       </c>
       <c r="W74" t="s">
         <v>29</v>
@@ -8001,15 +8011,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B75" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="C75" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="D75">
         <v>91207</v>
@@ -8018,19 +8028,19 @@
         <v>421</v>
       </c>
       <c r="F75" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="G75" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="H75" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="I75" t="s">
         <v>31</v>
       </c>
       <c r="J75" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="K75" t="s">
         <v>49</v>
@@ -8051,22 +8061,22 @@
         <v>31</v>
       </c>
       <c r="Q75" t="s">
-        <v>471</v>
+        <v>31</v>
       </c>
       <c r="R75" t="s">
-        <v>472</v>
+        <v>372</v>
       </c>
       <c r="S75" t="s">
-        <v>472</v>
+        <v>372</v>
       </c>
       <c r="T75" t="s">
-        <v>472</v>
+        <v>372</v>
       </c>
       <c r="U75" t="s">
-        <v>472</v>
+        <v>372</v>
       </c>
       <c r="V75" t="s">
-        <v>472</v>
+        <v>372</v>
       </c>
       <c r="W75" t="s">
         <v>29</v>
@@ -8075,15 +8085,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="B76" t="s">
         <v>68</v>
       </c>
       <c r="C76" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="D76">
         <v>91207</v>
@@ -8092,13 +8102,13 @@
         <v>421</v>
       </c>
       <c r="F76" t="s">
-        <v>448</v>
+        <v>468</v>
       </c>
       <c r="G76" t="s">
-        <v>29</v>
+        <v>469</v>
       </c>
       <c r="H76" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="I76" t="s">
         <v>31</v>
@@ -8119,28 +8129,28 @@
         <v>32</v>
       </c>
       <c r="O76" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P76" t="s">
         <v>31</v>
       </c>
       <c r="Q76" t="s">
-        <v>235</v>
+        <v>471</v>
       </c>
       <c r="R76" t="s">
-        <v>235</v>
+        <v>472</v>
       </c>
       <c r="S76" t="s">
-        <v>235</v>
+        <v>472</v>
       </c>
       <c r="T76" t="s">
-        <v>235</v>
+        <v>472</v>
       </c>
       <c r="U76" t="s">
-        <v>256</v>
+        <v>472</v>
       </c>
       <c r="V76" t="s">
-        <v>31</v>
+        <v>472</v>
       </c>
       <c r="W76" t="s">
         <v>29</v>
@@ -8149,15 +8159,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B77" t="s">
         <v>68</v>
       </c>
       <c r="C77" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D77">
         <v>91207</v>
@@ -8171,8 +8181,8 @@
       <c r="G77" t="s">
         <v>29</v>
       </c>
-      <c r="H77" t="s">
-        <v>478</v>
+      <c r="H77" s="4" t="s">
+        <v>646</v>
       </c>
       <c r="I77" t="s">
         <v>31</v>
@@ -8193,28 +8203,28 @@
         <v>32</v>
       </c>
       <c r="O77" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P77" t="s">
         <v>31</v>
       </c>
       <c r="Q77" t="s">
-        <v>295</v>
+        <v>235</v>
       </c>
       <c r="R77" t="s">
-        <v>295</v>
+        <v>235</v>
       </c>
       <c r="S77" t="s">
-        <v>295</v>
+        <v>235</v>
       </c>
       <c r="T77" t="s">
-        <v>295</v>
+        <v>235</v>
       </c>
       <c r="U77" t="s">
-        <v>295</v>
+        <v>256</v>
       </c>
       <c r="V77" t="s">
-        <v>295</v>
+        <v>31</v>
       </c>
       <c r="W77" t="s">
         <v>29</v>
@@ -8223,15 +8233,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B78" t="s">
         <v>68</v>
       </c>
       <c r="C78" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D78">
         <v>91207</v>
@@ -8240,22 +8250,22 @@
         <v>421</v>
       </c>
       <c r="F78" t="s">
-        <v>481</v>
+        <v>448</v>
       </c>
       <c r="G78" t="s">
         <v>29</v>
       </c>
       <c r="H78" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="I78" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="J78" t="s">
         <v>41</v>
       </c>
       <c r="K78" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="L78" t="s">
         <v>42</v>
@@ -8270,25 +8280,25 @@
         <v>33</v>
       </c>
       <c r="P78" t="s">
-        <v>483</v>
+        <v>31</v>
       </c>
       <c r="Q78" t="s">
-        <v>483</v>
+        <v>295</v>
       </c>
       <c r="R78" t="s">
-        <v>31</v>
+        <v>295</v>
       </c>
       <c r="S78" t="s">
-        <v>483</v>
+        <v>295</v>
       </c>
       <c r="T78" t="s">
-        <v>483</v>
+        <v>295</v>
       </c>
       <c r="U78" t="s">
-        <v>483</v>
+        <v>295</v>
       </c>
       <c r="V78" t="s">
-        <v>483</v>
+        <v>295</v>
       </c>
       <c r="W78" t="s">
         <v>29</v>
@@ -8297,15 +8307,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B79" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="C79" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="D79">
         <v>91207</v>
@@ -8314,13 +8324,13 @@
         <v>421</v>
       </c>
       <c r="F79" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="G79" t="s">
-        <v>487</v>
+        <v>29</v>
       </c>
       <c r="H79" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="I79" t="s">
         <v>40</v>
@@ -8329,7 +8339,7 @@
         <v>41</v>
       </c>
       <c r="K79" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="L79" t="s">
         <v>42</v>
@@ -8341,28 +8351,28 @@
         <v>32</v>
       </c>
       <c r="O79" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P79" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="Q79" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="R79" t="s">
-        <v>489</v>
+        <v>31</v>
       </c>
       <c r="S79" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="T79" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="U79" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="V79" t="s">
-        <v>31</v>
+        <v>482</v>
       </c>
       <c r="W79" t="s">
         <v>29</v>
@@ -8371,15 +8381,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="B80" t="s">
         <v>25</v>
       </c>
       <c r="C80" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="D80">
         <v>91207</v>
@@ -8388,19 +8398,19 @@
         <v>421</v>
       </c>
       <c r="F80" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="G80" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="H80" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="I80" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="J80" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="K80" t="s">
         <v>49</v>
@@ -8415,28 +8425,28 @@
         <v>32</v>
       </c>
       <c r="O80" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P80" t="s">
-        <v>31</v>
+        <v>488</v>
       </c>
       <c r="Q80" t="s">
-        <v>31</v>
+        <v>488</v>
       </c>
       <c r="R80" t="s">
-        <v>59</v>
+        <v>488</v>
       </c>
       <c r="S80" t="s">
-        <v>59</v>
+        <v>488</v>
       </c>
       <c r="T80" t="s">
-        <v>59</v>
+        <v>488</v>
       </c>
       <c r="U80" t="s">
-        <v>59</v>
+        <v>488</v>
       </c>
       <c r="V80" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="W80" t="s">
         <v>29</v>
@@ -8445,30 +8455,30 @@
         <v>29</v>
       </c>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="B81" t="s">
         <v>25</v>
       </c>
       <c r="C81" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="D81">
-        <v>91227</v>
+        <v>91207</v>
       </c>
       <c r="E81" t="s">
-        <v>497</v>
+        <v>421</v>
       </c>
       <c r="F81" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="G81" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="H81" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="I81" t="s">
         <v>31</v>
@@ -8498,19 +8508,19 @@
         <v>31</v>
       </c>
       <c r="R81" t="s">
-        <v>178</v>
+        <v>59</v>
       </c>
       <c r="S81" t="s">
-        <v>178</v>
+        <v>59</v>
       </c>
       <c r="T81" t="s">
-        <v>178</v>
+        <v>59</v>
       </c>
       <c r="U81" t="s">
-        <v>501</v>
+        <v>59</v>
       </c>
       <c r="V81" t="s">
-        <v>501</v>
+        <v>59</v>
       </c>
       <c r="W81" t="s">
         <v>29</v>
@@ -8519,33 +8529,33 @@
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="B82" t="s">
         <v>25</v>
       </c>
       <c r="C82" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="D82">
         <v>91227</v>
       </c>
       <c r="E82" t="s">
+        <v>496</v>
+      </c>
+      <c r="F82" t="s">
         <v>497</v>
       </c>
-      <c r="F82" t="s">
-        <v>504</v>
-      </c>
       <c r="G82" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="H82" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="I82" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="J82" t="s">
         <v>31</v>
@@ -8566,25 +8576,25 @@
         <v>33</v>
       </c>
       <c r="P82" t="s">
-        <v>507</v>
+        <v>31</v>
       </c>
       <c r="Q82" t="s">
         <v>31</v>
       </c>
       <c r="R82" t="s">
-        <v>507</v>
+        <v>178</v>
       </c>
       <c r="S82" t="s">
-        <v>507</v>
+        <v>178</v>
       </c>
       <c r="T82" t="s">
-        <v>507</v>
+        <v>178</v>
       </c>
       <c r="U82" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="V82" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="W82" t="s">
         <v>29</v>
@@ -8593,42 +8603,42 @@
         <v>29</v>
       </c>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B83" t="s">
         <v>25</v>
       </c>
       <c r="C83" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="D83">
         <v>91227</v>
       </c>
       <c r="E83" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F83" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="G83" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="H83" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="I83" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="J83" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="K83" t="s">
         <v>49</v>
       </c>
       <c r="L83" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="M83" t="s">
         <v>43</v>
@@ -8640,25 +8650,25 @@
         <v>33</v>
       </c>
       <c r="P83" t="s">
-        <v>31</v>
+        <v>506</v>
       </c>
       <c r="Q83" t="s">
-        <v>513</v>
+        <v>31</v>
       </c>
       <c r="R83" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="S83" t="s">
-        <v>31</v>
+        <v>506</v>
       </c>
       <c r="T83" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="U83" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="V83" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="W83" t="s">
         <v>29</v>
@@ -8667,39 +8677,39 @@
         <v>29</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="B84" t="s">
         <v>25</v>
       </c>
       <c r="C84" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="D84">
-        <v>91284</v>
+        <v>91227</v>
       </c>
       <c r="E84" t="s">
-        <v>517</v>
+        <v>496</v>
       </c>
       <c r="F84" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="G84" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="H84" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="I84" t="s">
         <v>31</v>
       </c>
       <c r="J84" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="K84" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="L84" t="s">
         <v>31</v>
@@ -8717,22 +8727,22 @@
         <v>31</v>
       </c>
       <c r="Q84" t="s">
-        <v>31</v>
+        <v>512</v>
       </c>
       <c r="R84" t="s">
-        <v>31</v>
+        <v>512</v>
       </c>
       <c r="S84" t="s">
         <v>31</v>
       </c>
       <c r="T84" t="s">
-        <v>58</v>
+        <v>512</v>
       </c>
       <c r="U84" t="s">
-        <v>165</v>
+        <v>512</v>
       </c>
       <c r="V84" t="s">
-        <v>165</v>
+        <v>513</v>
       </c>
       <c r="W84" t="s">
         <v>29</v>
@@ -8741,30 +8751,30 @@
         <v>29</v>
       </c>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="B85" t="s">
         <v>25</v>
       </c>
       <c r="C85" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="D85">
-        <v>91233</v>
+        <v>91284</v>
       </c>
       <c r="E85" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="F85" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="G85" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="H85" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="I85" t="s">
         <v>31</v>
@@ -8782,7 +8792,7 @@
         <v>43</v>
       </c>
       <c r="N85" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O85" t="s">
         <v>33</v>
@@ -8800,13 +8810,13 @@
         <v>31</v>
       </c>
       <c r="T85" t="s">
-        <v>527</v>
+        <v>58</v>
       </c>
       <c r="U85" t="s">
-        <v>31</v>
+        <v>165</v>
       </c>
       <c r="V85" t="s">
-        <v>528</v>
+        <v>165</v>
       </c>
       <c r="W85" t="s">
         <v>29</v>
@@ -8815,48 +8825,48 @@
         <v>29</v>
       </c>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="B86" t="s">
-        <v>252</v>
+        <v>25</v>
       </c>
       <c r="C86" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="D86">
-        <v>91242</v>
+        <v>91233</v>
       </c>
       <c r="E86" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="F86" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="G86" t="s">
-        <v>29</v>
+        <v>524</v>
       </c>
       <c r="H86" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="I86" t="s">
         <v>31</v>
       </c>
       <c r="J86" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="K86" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="L86" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="M86" t="s">
         <v>43</v>
       </c>
       <c r="N86" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O86" t="s">
         <v>33</v>
@@ -8865,22 +8875,22 @@
         <v>31</v>
       </c>
       <c r="Q86" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="R86" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="S86" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="T86" t="s">
-        <v>73</v>
+        <v>526</v>
       </c>
       <c r="U86" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="V86" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="W86" t="s">
         <v>29</v>
@@ -8889,36 +8899,36 @@
         <v>29</v>
       </c>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="B87" t="s">
-        <v>25</v>
+        <v>252</v>
       </c>
       <c r="C87" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="D87">
         <v>91242</v>
       </c>
       <c r="E87" t="s">
+        <v>530</v>
+      </c>
+      <c r="F87" t="s">
         <v>531</v>
       </c>
-      <c r="F87" t="s">
-        <v>537</v>
-      </c>
       <c r="G87" t="s">
         <v>29</v>
       </c>
       <c r="H87" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="I87" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="J87" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="K87" t="s">
         <v>49</v>
@@ -8936,25 +8946,25 @@
         <v>33</v>
       </c>
       <c r="P87" t="s">
-        <v>539</v>
+        <v>31</v>
       </c>
       <c r="Q87" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="R87" t="s">
-        <v>539</v>
+        <v>73</v>
       </c>
       <c r="S87" t="s">
-        <v>539</v>
+        <v>73</v>
       </c>
       <c r="T87" t="s">
-        <v>237</v>
+        <v>73</v>
       </c>
       <c r="U87" t="s">
-        <v>237</v>
+        <v>73</v>
       </c>
       <c r="V87" t="s">
-        <v>237</v>
+        <v>533</v>
       </c>
       <c r="W87" t="s">
         <v>29</v>
@@ -8963,39 +8973,39 @@
         <v>29</v>
       </c>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="B88" t="s">
         <v>25</v>
       </c>
       <c r="C88" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="D88">
-        <v>91287</v>
+        <v>91242</v>
       </c>
       <c r="E88" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="F88" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="G88" t="s">
-        <v>544</v>
+        <v>29</v>
       </c>
       <c r="H88" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="I88" t="s">
         <v>40</v>
       </c>
       <c r="J88" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="K88" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="L88" t="s">
         <v>42</v>
@@ -9010,25 +9020,25 @@
         <v>33</v>
       </c>
       <c r="P88" t="s">
-        <v>295</v>
+        <v>538</v>
       </c>
       <c r="Q88" t="s">
-        <v>295</v>
+        <v>31</v>
       </c>
       <c r="R88" t="s">
-        <v>31</v>
+        <v>538</v>
       </c>
       <c r="S88" t="s">
-        <v>295</v>
+        <v>538</v>
       </c>
       <c r="T88" t="s">
-        <v>295</v>
+        <v>237</v>
       </c>
       <c r="U88" t="s">
-        <v>295</v>
+        <v>237</v>
       </c>
       <c r="V88" t="s">
-        <v>295</v>
+        <v>237</v>
       </c>
       <c r="W88" t="s">
         <v>29</v>
@@ -9037,45 +9047,45 @@
         <v>29</v>
       </c>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="B89" t="s">
         <v>25</v>
       </c>
       <c r="C89" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="D89">
         <v>91287</v>
       </c>
       <c r="E89" t="s">
+        <v>541</v>
+      </c>
+      <c r="F89" t="s">
         <v>542</v>
       </c>
-      <c r="F89" t="s">
-        <v>548</v>
-      </c>
       <c r="G89" t="s">
-        <v>29</v>
+        <v>543</v>
       </c>
       <c r="H89" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="I89" t="s">
         <v>40</v>
       </c>
       <c r="J89" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="K89" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="L89" t="s">
         <v>42</v>
       </c>
       <c r="M89" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="N89" t="s">
         <v>32</v>
@@ -9084,25 +9094,25 @@
         <v>33</v>
       </c>
       <c r="P89" t="s">
-        <v>550</v>
+        <v>295</v>
       </c>
       <c r="Q89" t="s">
-        <v>31</v>
+        <v>295</v>
       </c>
       <c r="R89" t="s">
-        <v>550</v>
+        <v>31</v>
       </c>
       <c r="S89" t="s">
-        <v>550</v>
+        <v>295</v>
       </c>
       <c r="T89" t="s">
-        <v>31</v>
+        <v>295</v>
       </c>
       <c r="U89" t="s">
-        <v>550</v>
+        <v>295</v>
       </c>
       <c r="V89" t="s">
-        <v>551</v>
+        <v>295</v>
       </c>
       <c r="W89" t="s">
         <v>29</v>
@@ -9111,36 +9121,36 @@
         <v>29</v>
       </c>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="B90" t="s">
         <v>25</v>
       </c>
       <c r="C90" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="D90">
         <v>91287</v>
       </c>
       <c r="E90" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F90" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="G90" t="s">
-        <v>555</v>
+        <v>29</v>
       </c>
       <c r="H90" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="I90" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="J90" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="K90" t="s">
         <v>49</v>
@@ -9149,7 +9159,7 @@
         <v>42</v>
       </c>
       <c r="M90" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="N90" t="s">
         <v>32</v>
@@ -9158,25 +9168,25 @@
         <v>33</v>
       </c>
       <c r="P90" t="s">
-        <v>31</v>
+        <v>549</v>
       </c>
       <c r="Q90" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="R90" t="s">
-        <v>73</v>
+        <v>549</v>
       </c>
       <c r="S90" t="s">
-        <v>73</v>
+        <v>549</v>
       </c>
       <c r="T90" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="U90" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="V90" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="W90" t="s">
         <v>29</v>
@@ -9185,39 +9195,39 @@
         <v>29</v>
       </c>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="B91" t="s">
         <v>25</v>
       </c>
       <c r="C91" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="D91">
-        <v>91224</v>
+        <v>91287</v>
       </c>
       <c r="E91" t="s">
-        <v>560</v>
+        <v>541</v>
       </c>
       <c r="F91" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="G91" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="H91" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="I91" t="s">
         <v>31</v>
       </c>
       <c r="J91" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="K91" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="L91" t="s">
         <v>42</v>
@@ -9235,22 +9245,22 @@
         <v>31</v>
       </c>
       <c r="Q91" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="R91" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="S91" t="s">
-        <v>564</v>
+        <v>73</v>
       </c>
       <c r="T91" t="s">
-        <v>564</v>
+        <v>73</v>
       </c>
       <c r="U91" t="s">
-        <v>44</v>
+        <v>556</v>
       </c>
       <c r="V91" t="s">
-        <v>44</v>
+        <v>556</v>
       </c>
       <c r="W91" t="s">
         <v>29</v>
@@ -9259,42 +9269,42 @@
         <v>29</v>
       </c>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="B92" t="s">
         <v>25</v>
       </c>
       <c r="C92" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="D92">
         <v>91224</v>
       </c>
       <c r="E92" t="s">
+        <v>559</v>
+      </c>
+      <c r="F92" t="s">
         <v>560</v>
       </c>
-      <c r="F92" t="s">
-        <v>567</v>
-      </c>
       <c r="G92" t="s">
-        <v>29</v>
+        <v>561</v>
       </c>
       <c r="H92" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="I92" t="s">
         <v>31</v>
       </c>
       <c r="J92" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="K92" t="s">
         <v>31</v>
       </c>
       <c r="L92" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="M92" t="s">
         <v>43</v>
@@ -9309,22 +9319,22 @@
         <v>31</v>
       </c>
       <c r="Q92" t="s">
-        <v>228</v>
+        <v>31</v>
       </c>
       <c r="R92" t="s">
         <v>31</v>
       </c>
       <c r="S92" t="s">
-        <v>31</v>
+        <v>563</v>
       </c>
       <c r="T92" t="s">
-        <v>228</v>
+        <v>563</v>
       </c>
       <c r="U92" t="s">
-        <v>404</v>
+        <v>44</v>
       </c>
       <c r="V92" t="s">
-        <v>569</v>
+        <v>44</v>
       </c>
       <c r="W92" t="s">
         <v>29</v>
@@ -9333,30 +9343,30 @@
         <v>29</v>
       </c>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="B93" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="C93" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="D93">
         <v>91224</v>
       </c>
       <c r="E93" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F93" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="G93" t="s">
         <v>29</v>
       </c>
       <c r="H93" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="I93" t="s">
         <v>31</v>
@@ -9365,10 +9375,10 @@
         <v>41</v>
       </c>
       <c r="K93" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="L93" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="M93" t="s">
         <v>43</v>
@@ -9383,22 +9393,22 @@
         <v>31</v>
       </c>
       <c r="Q93" t="s">
-        <v>108</v>
+        <v>228</v>
       </c>
       <c r="R93" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="S93" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="T93" t="s">
-        <v>108</v>
+        <v>228</v>
       </c>
       <c r="U93" t="s">
-        <v>108</v>
+        <v>404</v>
       </c>
       <c r="V93" t="s">
-        <v>108</v>
+        <v>568</v>
       </c>
       <c r="W93" t="s">
         <v>29</v>
@@ -9407,36 +9417,36 @@
         <v>29</v>
       </c>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="B94" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="C94" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="D94">
-        <v>90552</v>
+        <v>91224</v>
       </c>
       <c r="E94" t="s">
-        <v>576</v>
+        <v>559</v>
       </c>
       <c r="F94" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="G94" t="s">
-        <v>578</v>
+        <v>29</v>
       </c>
       <c r="H94" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="I94" t="s">
         <v>31</v>
       </c>
       <c r="J94" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="K94" t="s">
         <v>49</v>
@@ -9457,22 +9467,22 @@
         <v>31</v>
       </c>
       <c r="Q94" t="s">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="R94" t="s">
-        <v>289</v>
+        <v>108</v>
       </c>
       <c r="S94" t="s">
-        <v>289</v>
+        <v>108</v>
       </c>
       <c r="T94" t="s">
-        <v>289</v>
+        <v>108</v>
       </c>
       <c r="U94" t="s">
-        <v>289</v>
+        <v>108</v>
       </c>
       <c r="V94" t="s">
-        <v>289</v>
+        <v>108</v>
       </c>
       <c r="W94" t="s">
         <v>29</v>
@@ -9481,30 +9491,30 @@
         <v>29</v>
       </c>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="B95" t="s">
         <v>25</v>
       </c>
       <c r="C95" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="D95">
         <v>90552</v>
       </c>
       <c r="E95" t="s">
+        <v>575</v>
+      </c>
+      <c r="F95" t="s">
         <v>576</v>
       </c>
-      <c r="F95" t="s">
-        <v>582</v>
-      </c>
       <c r="G95" t="s">
-        <v>29</v>
+        <v>577</v>
       </c>
       <c r="H95" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="I95" t="s">
         <v>31</v>
@@ -9534,19 +9544,19 @@
         <v>31</v>
       </c>
       <c r="R95" t="s">
-        <v>44</v>
+        <v>289</v>
       </c>
       <c r="S95" t="s">
-        <v>44</v>
+        <v>289</v>
       </c>
       <c r="T95" t="s">
-        <v>44</v>
+        <v>289</v>
       </c>
       <c r="U95" t="s">
-        <v>44</v>
+        <v>289</v>
       </c>
       <c r="V95" t="s">
-        <v>44</v>
+        <v>289</v>
       </c>
       <c r="W95" t="s">
         <v>29</v>
@@ -9555,39 +9565,39 @@
         <v>29</v>
       </c>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="B96" t="s">
         <v>25</v>
       </c>
       <c r="C96" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="D96">
         <v>90552</v>
       </c>
       <c r="E96" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F96" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="G96" t="s">
-        <v>587</v>
+        <v>29</v>
       </c>
       <c r="H96" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="I96" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="J96" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="K96" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="L96" t="s">
         <v>42</v>
@@ -9602,25 +9612,25 @@
         <v>33</v>
       </c>
       <c r="P96" t="s">
-        <v>589</v>
+        <v>31</v>
       </c>
       <c r="Q96" t="s">
-        <v>589</v>
+        <v>31</v>
       </c>
       <c r="R96" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="S96" t="s">
-        <v>589</v>
+        <v>44</v>
       </c>
       <c r="T96" t="s">
-        <v>589</v>
+        <v>44</v>
       </c>
       <c r="U96" t="s">
-        <v>589</v>
+        <v>44</v>
       </c>
       <c r="V96" t="s">
-        <v>590</v>
+        <v>44</v>
       </c>
       <c r="W96" t="s">
         <v>29</v>
@@ -9629,39 +9639,39 @@
         <v>29</v>
       </c>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="B97" t="s">
         <v>25</v>
       </c>
       <c r="C97" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="D97">
-        <v>91245</v>
+        <v>90552</v>
       </c>
       <c r="E97" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="F97" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="G97" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="H97" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="I97" t="s">
         <v>40</v>
       </c>
       <c r="J97" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="K97" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="L97" t="s">
         <v>42</v>
@@ -9676,25 +9686,25 @@
         <v>33</v>
       </c>
       <c r="P97" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="Q97" t="s">
-        <v>31</v>
+        <v>588</v>
       </c>
       <c r="R97" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="S97" t="s">
-        <v>44</v>
+        <v>588</v>
       </c>
       <c r="T97" t="s">
-        <v>44</v>
+        <v>588</v>
       </c>
       <c r="U97" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="V97" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="W97" t="s">
         <v>29</v>
@@ -9703,33 +9713,33 @@
         <v>29</v>
       </c>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="B98" t="s">
         <v>25</v>
       </c>
       <c r="C98" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="D98">
         <v>91245</v>
       </c>
       <c r="E98" t="s">
+        <v>592</v>
+      </c>
+      <c r="F98" t="s">
         <v>593</v>
       </c>
-      <c r="F98" t="s">
-        <v>602</v>
-      </c>
       <c r="G98" t="s">
-        <v>29</v>
+        <v>594</v>
       </c>
       <c r="H98" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="I98" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="J98" t="s">
         <v>31</v>
@@ -9750,25 +9760,25 @@
         <v>33</v>
       </c>
       <c r="P98" t="s">
-        <v>31</v>
+        <v>596</v>
       </c>
       <c r="Q98" t="s">
         <v>31</v>
       </c>
       <c r="R98" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="S98" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="T98" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="U98" t="s">
-        <v>106</v>
+        <v>597</v>
       </c>
       <c r="V98" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="W98" t="s">
         <v>29</v>
@@ -9777,30 +9787,30 @@
         <v>29</v>
       </c>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="B99" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="C99" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="D99">
-        <v>91247</v>
+        <v>91245</v>
       </c>
       <c r="E99" t="s">
-        <v>607</v>
+        <v>592</v>
       </c>
       <c r="F99" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="G99" t="s">
         <v>29</v>
       </c>
       <c r="H99" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="I99" t="s">
         <v>31</v>
@@ -9809,13 +9819,13 @@
         <v>31</v>
       </c>
       <c r="K99" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="L99" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="M99" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="N99" t="s">
         <v>32</v>
@@ -9830,19 +9840,19 @@
         <v>31</v>
       </c>
       <c r="R99" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="S99" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="T99" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="U99" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="V99" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="W99" t="s">
         <v>29</v>
@@ -9851,45 +9861,45 @@
         <v>29</v>
       </c>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="B100" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="C100" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="D100">
         <v>91247</v>
       </c>
       <c r="E100" t="s">
+        <v>606</v>
+      </c>
+      <c r="F100" t="s">
         <v>607</v>
       </c>
-      <c r="F100" t="s">
-        <v>613</v>
-      </c>
       <c r="G100" t="s">
-        <v>614</v>
+        <v>29</v>
       </c>
       <c r="H100" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="I100" t="s">
         <v>31</v>
       </c>
       <c r="J100" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="K100" t="s">
         <v>31</v>
       </c>
       <c r="L100" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="M100" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="N100" t="s">
         <v>32</v>
@@ -9901,22 +9911,22 @@
         <v>31</v>
       </c>
       <c r="Q100" t="s">
-        <v>616</v>
+        <v>31</v>
       </c>
       <c r="R100" t="s">
         <v>31</v>
       </c>
       <c r="S100" t="s">
-        <v>616</v>
+        <v>31</v>
       </c>
       <c r="T100" t="s">
-        <v>616</v>
+        <v>31</v>
       </c>
       <c r="U100" t="s">
-        <v>616</v>
+        <v>74</v>
       </c>
       <c r="V100" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="W100" t="s">
         <v>29</v>
@@ -9925,42 +9935,42 @@
         <v>29</v>
       </c>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="B101" t="s">
         <v>25</v>
       </c>
       <c r="C101" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="D101">
         <v>91247</v>
       </c>
       <c r="E101" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F101" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="G101" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="H101" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="I101" t="s">
         <v>31</v>
       </c>
       <c r="J101" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="K101" t="s">
         <v>31</v>
       </c>
       <c r="L101" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="M101" t="s">
         <v>43</v>
@@ -9975,22 +9985,22 @@
         <v>31</v>
       </c>
       <c r="Q101" t="s">
-        <v>31</v>
+        <v>615</v>
       </c>
       <c r="R101" t="s">
         <v>31</v>
       </c>
       <c r="S101" t="s">
-        <v>31</v>
+        <v>615</v>
       </c>
       <c r="T101" t="s">
-        <v>472</v>
+        <v>615</v>
       </c>
       <c r="U101" t="s">
-        <v>472</v>
+        <v>615</v>
       </c>
       <c r="V101" t="s">
-        <v>59</v>
+        <v>615</v>
       </c>
       <c r="W101" t="s">
         <v>29</v>
@@ -9999,30 +10009,30 @@
         <v>29</v>
       </c>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="B102" t="s">
         <v>25</v>
       </c>
       <c r="C102" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="D102">
-        <v>91367</v>
+        <v>91247</v>
       </c>
       <c r="E102" t="s">
-        <v>624</v>
+        <v>606</v>
       </c>
       <c r="F102" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="G102" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="H102" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="I102" t="s">
         <v>31</v>
@@ -10034,7 +10044,7 @@
         <v>31</v>
       </c>
       <c r="L102" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="M102" t="s">
         <v>43</v>
@@ -10055,16 +10065,16 @@
         <v>31</v>
       </c>
       <c r="S102" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="T102" t="s">
-        <v>74</v>
+        <v>472</v>
       </c>
       <c r="U102" t="s">
-        <v>74</v>
+        <v>472</v>
       </c>
       <c r="V102" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="W102" t="s">
         <v>29</v>
@@ -10073,39 +10083,39 @@
         <v>29</v>
       </c>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="B103" t="s">
         <v>25</v>
       </c>
       <c r="C103" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="D103">
         <v>91367</v>
       </c>
       <c r="E103" t="s">
+        <v>623</v>
+      </c>
+      <c r="F103" t="s">
         <v>624</v>
       </c>
-      <c r="F103" t="s">
-        <v>630</v>
-      </c>
       <c r="G103" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="H103" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="I103" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="J103" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="K103" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="L103" t="s">
         <v>42</v>
@@ -10117,33 +10127,107 @@
         <v>32</v>
       </c>
       <c r="O103" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P103" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>31</v>
+      </c>
+      <c r="R103" t="s">
+        <v>31</v>
+      </c>
+      <c r="S103" t="s">
+        <v>73</v>
+      </c>
+      <c r="T103" t="s">
+        <v>74</v>
+      </c>
+      <c r="U103" t="s">
+        <v>74</v>
+      </c>
+      <c r="V103" t="s">
+        <v>74</v>
+      </c>
+      <c r="W103" t="s">
+        <v>29</v>
+      </c>
+      <c r="X103" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>627</v>
+      </c>
+      <c r="B104" t="s">
+        <v>25</v>
+      </c>
+      <c r="C104" t="s">
+        <v>628</v>
+      </c>
+      <c r="D104">
+        <v>91367</v>
+      </c>
+      <c r="E104" t="s">
+        <v>623</v>
+      </c>
+      <c r="F104" t="s">
+        <v>629</v>
+      </c>
+      <c r="G104" t="s">
+        <v>630</v>
+      </c>
+      <c r="H104" t="s">
+        <v>631</v>
+      </c>
+      <c r="I104" t="s">
+        <v>40</v>
+      </c>
+      <c r="J104" t="s">
+        <v>41</v>
+      </c>
+      <c r="K104" t="s">
+        <v>49</v>
+      </c>
+      <c r="L104" t="s">
+        <v>42</v>
+      </c>
+      <c r="M104" t="s">
+        <v>43</v>
+      </c>
+      <c r="N104" t="s">
+        <v>32</v>
+      </c>
+      <c r="O104" t="s">
+        <v>31</v>
+      </c>
+      <c r="P104" t="s">
+        <v>632</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>632</v>
+      </c>
+      <c r="R104" t="s">
+        <v>632</v>
+      </c>
+      <c r="S104" t="s">
+        <v>632</v>
+      </c>
+      <c r="T104" t="s">
+        <v>632</v>
+      </c>
+      <c r="U104" t="s">
         <v>633</v>
       </c>
-      <c r="Q103" t="s">
-        <v>633</v>
-      </c>
-      <c r="R103" t="s">
-        <v>633</v>
-      </c>
-      <c r="S103" t="s">
-        <v>633</v>
-      </c>
-      <c r="T103" t="s">
-        <v>633</v>
-      </c>
-      <c r="U103" t="s">
-        <v>634</v>
-      </c>
-      <c r="V103" t="s">
-        <v>31</v>
-      </c>
-      <c r="W103" t="s">
-        <v>29</v>
-      </c>
-      <c r="X103" t="s">
+      <c r="V104" t="s">
+        <v>31</v>
+      </c>
+      <c r="W104" t="s">
+        <v>29</v>
+      </c>
+      <c r="X104" t="s">
         <v>29</v>
       </c>
     </row>
@@ -10151,10 +10235,12 @@
   <hyperlinks>
     <hyperlink ref="H58" r:id="rId1" xr:uid="{3518E2E3-45F1-448A-93F8-FA096D84A577}"/>
     <hyperlink ref="G58" r:id="rId2" xr:uid="{7220F707-B88F-4FDE-AEBA-ED4F716E05CE}"/>
+    <hyperlink ref="H66" r:id="rId3" xr:uid="{E21B4CDC-0C24-4AE4-A455-B47745880EBB}"/>
+    <hyperlink ref="H77" r:id="rId4" xr:uid="{DCD110A5-671C-4CAE-B5B0-8DFC3498E310}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
@@ -10165,7 +10251,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
